--- a/03_arquivos/07_planilhas/planilhas/planilhas_separadas/sc.xlsx
+++ b/03_arquivos/07_planilhas/planilhas/planilhas_separadas/sc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,759 +434,654 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Telefones</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Telefones</t>
+          <t>email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>receita</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>David Westmark</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>90950816</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>davidw@gmail.com</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>553410.95</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Jose Prendergast</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>98884330</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>josep@gmail.com</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="D3" t="n">
         <v>609898.3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Dannie Hazard</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>95704128</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>dannieh@gmail.com</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>393376.53</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Isabella Mills</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>96001536</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>isabellam@gmail.com</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>265234.22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Summer Godwin</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>96767892</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>summerg@gmail.com</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>357351.67</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Tiffany Caldwell</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="B7" t="n">
         <v>94693709</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>tiffanyc@gmail.com</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="D7" t="n">
         <v>429511.14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Jon Ruud</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>93196046</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>jonr@gmail.com</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>721998.84</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>James Johnson</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="B9" t="n">
         <v>99667512</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>jamesj@gmail.com</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="D9" t="n">
         <v>371219.03</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Alexander Jones</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="B10" t="n">
         <v>99048721</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>alexanderj@gmail.com</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="D10" t="n">
         <v>906479.67</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Anthony Burrus</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>98034818</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>anthonyb@gmail.com</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="D11" t="n">
         <v>122323.72</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Louise Lampe</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="B12" t="n">
         <v>92738972</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>louisel@gmail.com</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>146207.73</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Stanley Peterson</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="B13" t="n">
         <v>92024858</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>stanleyp@gmail.com</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="D13" t="n">
         <v>305627.26</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Daisy Greis</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>96465571</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>daisyg@gmail.com</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>98646.87</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Brenda Joyce</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="B15" t="n">
         <v>91237474</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>brendaj@gmail.com</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="D15" t="n">
         <v>673071.48</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>James Delperdang</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="B16" t="n">
         <v>97806472</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>jamesd@gmail.com</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="D16" t="n">
         <v>367005.38</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Paul Harris</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="B17" t="n">
         <v>91697926</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>paulh@gmail.com</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="D17" t="n">
         <v>439501.66</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Kenneth Garcia</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="B18" t="n">
         <v>98280326</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>kennethg@gmail.com</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="D18" t="n">
         <v>632618.67</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Annie Luppino</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="B19" t="n">
         <v>97351397</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>anniel@gmail.com</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="D19" t="n">
         <v>627363.5600000001</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Douglas Moss</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>97472148</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>douglasm@gmail.com</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="D20" t="n">
         <v>561447.86</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Rodney Perkins</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="B21" t="n">
         <v>95784925</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>rodneyp@gmail.com</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="D21" t="n">
         <v>147385.51</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Andrew Alvarado</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>94105467</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>andrewa@gmail.com</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="D22" t="n">
         <v>830737.4300000001</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Lisa Green</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="B23" t="n">
         <v>99472405</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>lisag@gmail.com</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="D23" t="n">
         <v>100154.02</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Velma Teague</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="B24" t="n">
         <v>93931898</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>velmat@gmail.com</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="D24" t="n">
         <v>653379.42</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Loretta Valencia</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="B25" t="n">
         <v>99469512</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>lorettav@gmail.com</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="D25" t="n">
         <v>849025.23</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Sandra Lank</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="B26" t="n">
         <v>91820996</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>sandral@gmail.com</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="D26" t="n">
         <v>396636.38</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Charles Grimaldo</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="B27" t="n">
         <v>98547715</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>charlesg@gmail.com</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="D27" t="n">
         <v>889349.88</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Troy Makris</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="B28" t="n">
         <v>96648633</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>troym@gmail.com</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="D28" t="n">
         <v>620966.4300000001</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Robert Wortham</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="B29" t="n">
         <v>99848030</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>robertw@gmail.com</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="D29" t="n">
         <v>452916.55</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Pablo Jones</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="B30" t="n">
         <v>92600402</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>pabloj@gmail.com</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="D30" t="n">
         <v>647857.11</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Theresa Battle</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="B31" t="n">
         <v>90810826</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>theresab@gmail.com</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="D31" t="n">
         <v>318288.93</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Sara Savage</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="B32" t="n">
         <v>98178282</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>saras@gmail.com</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="D32" t="n">
         <v>581899.08</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Duane Piche</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="B33" t="n">
         <v>91019921</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>duanep@gmail.com</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="D33" t="n">
         <v>846228.08</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Janet Smith</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="B34" t="n">
         <v>96181888</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>janets@gmail.com</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="D34" t="n">
         <v>247271.65</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Tabitha Salamone</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="B35" t="n">
         <v>99927802</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>tabithas@gmail.com</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="D35" t="n">
         <v>107710.17</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Corey Park</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="B36" t="n">
         <v>93172449</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>coreyp@gmail.com</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="D36" t="n">
         <v>297007.91</v>
       </c>
     </row>
